--- a/medicine/Enfance/Barbara_Garlaschelli/Barbara_Garlaschelli.xlsx
+++ b/medicine/Enfance/Barbara_Garlaschelli/Barbara_Garlaschelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbara Garlaschelli, née le 26 novembre 1965 à Milan, en Lombardie, est une romancière italienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est diplômée en lettres modernes de l'université de Milan. Paralysée à la suite d'un accident, elle commence à écrire en 1993. Elle publie son premier roman O ridere o morire en 1995. Son écriture est polyvalente et ses histoires se trouvent souvent à la frontière de plusieurs genres littéraires. Elle obtient en 2004 le prestigieux Premio Giorgio Scerbanenco pour son roman Sorelle (Deux sœurs).  Elle a aussi donné des livres pour la jeunesse et a travaillé pour l'éditeur italien pour enfant Edizioni EL.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-O ridere o morire (1995)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>O ridere o morire (1995)
 Ladri e barattoli (1996)
 Quando la paura chiama (1997) Publié en français sous le titre La Peur au bout du fil, Paris, Gallimard, coll. Page noire, 1998.
 L'ultima estate (1998) Publié en français sous le titre Le Dernier Été, Paris, Gallimard, coll. Page blanche, 2000.
@@ -558,14 +577,82 @@
 L'una nell'altra (2006)
 Frammenti. Storie da un fortino di periferia (2006)
 Non ti voglio vicino (2010)
-Lettere dall'orlo del mondo (2012)
-Littérature d'enfance et de jeunesse
-Tre amiche e una farfalla (1998)
+Lettere dall'orlo del mondo (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barbara_Garlaschelli</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbara_Garlaschelli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tre amiche e una farfalla (1998)
 Marta nelle onde (1999)
 Davì (2000)
-La mappa del male (avec Nicoletta Vallorani) (2000)
-Nouvelles
-Loraine (1996)
+La mappa del male (avec Nicoletta Vallorani) (2000)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barbara_Garlaschelli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbara_Garlaschelli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Loraine (1996)
 Prima della rivolta (1997)
 Dentro i colori (1998)
 Conversazione (1999)
@@ -581,31 +668,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Barbara_Garlaschelli</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Barbara_Garlaschelli</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2004 : Prix Giorgio Scerbanenco : Sorelle (Deux sœurs)</t>
         </is>
